--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA903963-1BFB-4EFA-AC06-F3482B77C861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971362D8-EBE9-4870-B727-FD9F386A1671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971362D8-EBE9-4870-B727-FD9F386A1671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461AB3D-A971-455B-A876-D865B3752990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="1" r:id="rId1"/>
+    <sheet name="GuideQuestTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>type|String</t>
   </si>
@@ -115,6 +116,84 @@
   </si>
   <si>
     <t>SubQuestDesc_8</t>
+  </si>
+  <si>
+    <t>id|String</t>
+  </si>
+  <si>
+    <t>typeId|Int</t>
+  </si>
+  <si>
+    <t>iconId|Int</t>
+  </si>
+  <si>
+    <t>needCount|Int</t>
+  </si>
+  <si>
+    <t>rewardAdditionalText|String</t>
+  </si>
+  <si>
+    <t>rewardType|String</t>
+  </si>
+  <si>
+    <t>rewardValue|String</t>
+  </si>
+  <si>
+    <t>rewardCount|Int</t>
+  </si>
+  <si>
+    <t>nextNoti|Int</t>
+  </si>
+  <si>
+    <t>nextParameter|String</t>
+  </si>
+  <si>
+    <t>id1</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>ShopUIName_Legendary1</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>id4</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>id5</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>id6</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>id7</t>
+  </si>
+  <si>
+    <t>b8</t>
   </si>
 </sst>
 </file>
@@ -480,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EAC42-57D5-4465-95F3-77B68A2F422D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -650,4 +729,277 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461AB3D-A971-455B-A876-D865B3752990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2288939-F94A-48B4-9D91-0C9790B0511D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>type|String</t>
   </si>
@@ -118,9 +118,6 @@
     <t>SubQuestDesc_8</t>
   </si>
   <si>
-    <t>id|String</t>
-  </si>
-  <si>
     <t>typeId|Int</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>nextParameter|String</t>
   </si>
   <si>
-    <t>id1</t>
-  </si>
-  <si>
     <t>cu</t>
   </si>
   <si>
@@ -160,40 +154,25 @@
     <t>ShopUIName_Legendary1</t>
   </si>
   <si>
-    <t>id2</t>
-  </si>
-  <si>
     <t>DI</t>
   </si>
   <si>
-    <t>id3</t>
-  </si>
-  <si>
     <t>EN</t>
   </si>
   <si>
-    <t>id4</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
-    <t>id5</t>
-  </si>
-  <si>
     <t>be</t>
   </si>
   <si>
-    <t>id6</t>
-  </si>
-  <si>
     <t>bc</t>
   </si>
   <si>
-    <t>id7</t>
-  </si>
-  <si>
     <t>b8</t>
+  </si>
+  <si>
+    <t>id|Int</t>
   </si>
 </sst>
 </file>
@@ -747,48 +726,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -797,10 +776,10 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>500</v>
@@ -809,18 +788,18 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -829,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -841,18 +820,18 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -861,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -873,18 +852,18 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -893,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -905,18 +884,18 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -925,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -937,18 +916,18 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -957,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -966,18 +945,18 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -986,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>1</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2288939-F94A-48B4-9D91-0C9790B0511D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D3BA4A-BE60-45C1-A4EF-94F0D572B2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>type|String</t>
   </si>
@@ -173,6 +173,33 @@
   </si>
   <si>
     <t>id|Int</t>
+  </si>
+  <si>
+    <t>shortDescriptionId|String</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_1</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_2</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_3</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_4</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_5</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_6</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_7</t>
+  </si>
+  <si>
+    <t>SubQuestShortDesc_8</t>
   </si>
 </sst>
 </file>
@@ -536,22 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EAC42-57D5-4465-95F3-77B68A2F422D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,13 +588,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -579,13 +608,16 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -596,13 +628,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -613,13 +648,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -630,13 +668,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -647,13 +688,16 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -664,13 +708,16 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -681,13 +728,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -698,9 +748,12 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -714,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D3BA4A-BE60-45C1-A4EF-94F0D572B2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB659B0-49AF-4DE5-B3BF-2E4AA0B136D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>type|String</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>SubQuestShortDesc_8</t>
+  </si>
+  <si>
+    <t>viewInBattle|Bool</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75EAC42-57D5-4465-95F3-77B68A2F422D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -765,19 +768,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -791,28 +794,31 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -825,26 +831,29 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>500</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -857,26 +866,29 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -889,26 +901,29 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -921,26 +936,29 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -953,26 +971,29 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -985,23 +1006,26 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1014,19 +1038,22 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB659B0-49AF-4DE5-B3BF-2E4AA0B136D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A23EB-1BE0-4668-9784-B2BFDEE797A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>type|String</t>
   </si>
@@ -169,9 +169,6 @@
     <t>bc</t>
   </si>
   <si>
-    <t>b8</t>
-  </si>
-  <si>
     <t>id|Int</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
   </si>
   <si>
     <t>viewInBattle|Bool</t>
+  </si>
+  <si>
+    <t>param|String</t>
+  </si>
+  <si>
+    <t>bm</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -611,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -631,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -651,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -671,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -691,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -711,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -731,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -751,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -768,7 +771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -776,13 +779,14 @@
   <cols>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -794,31 +798,34 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -837,23 +844,23 @@
       <c r="F2">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>500</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -872,23 +879,23 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -907,23 +914,23 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -942,23 +949,23 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -977,23 +984,23 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1012,20 +1019,20 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1044,16 +1051,16 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="I8" t="s">
+        <v>57</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A23EB-1BE0-4668-9784-B2BFDEE797A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8AEE8-271E-4F06-8953-98372EDFEF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>type|String</t>
   </si>
@@ -151,21 +151,9 @@
     <t>GO</t>
   </si>
   <si>
-    <t>ShopUIName_Legendary1</t>
-  </si>
-  <si>
     <t>DI</t>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
     <t>bc</t>
   </si>
   <si>
@@ -205,7 +193,40 @@
     <t>param|String</t>
   </si>
   <si>
-    <t>bm</t>
+    <t>GuideQuestDesc_12</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_13</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_17</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_25</t>
+  </si>
+  <si>
+    <t>ShopUIName_CharacterBox</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_11</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_14_any</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_9</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_19</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_20_staff</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_14</t>
+  </si>
+  <si>
+    <t>Actor1005</t>
   </si>
 </sst>
 </file>
@@ -594,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -614,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -634,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -654,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -674,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -694,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -714,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -734,7 +755,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -754,7 +775,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -771,7 +792,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -798,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -842,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
@@ -854,10 +875,7 @@
         <v>500</v>
       </c>
       <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -865,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -883,16 +901,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -900,34 +915,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="I4" t="s">
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -935,16 +947,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -953,16 +965,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -970,34 +979,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1005,31 +1014,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1037,30 +1049,520 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
         <v>57</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>500</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>700</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE8AEE8-271E-4F06-8953-98372EDFEF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DB7E2-C084-485A-9C1E-62B9A0C8C1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
   <sheets>
     <sheet name="SubQuestTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>type|String</t>
   </si>
@@ -208,9 +208,6 @@
     <t>ShopUIName_CharacterBox</t>
   </si>
   <si>
-    <t>GuideQuestDesc_11</t>
-  </si>
-  <si>
     <t>GuideQuestDesc_14_any</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>Actor1005</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_16</t>
+  </si>
+  <si>
+    <t>Actor1002</t>
   </si>
 </sst>
 </file>
@@ -883,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -947,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -979,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
         <v>37</v>
@@ -1014,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1049,19 +1052,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>65</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1084,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1099,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
@@ -1122,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1192,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1207,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1335,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1347,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
@@ -1373,13 +1379,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1405,13 +1411,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1501,22 +1507,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
@@ -1536,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1548,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I22" t="s">
         <v>37</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DB7E2-C084-485A-9C1E-62B9A0C8C1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A16CA-3C9E-4AA0-8278-391A4CE5342A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>type|String</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>EN</t>
   </si>
   <si>
     <t>bc</t>
@@ -618,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -638,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -658,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -678,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -698,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -718,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -738,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -758,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -778,7 +781,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -810,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -822,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -892,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -939,7 +942,7 @@
         <v>38</v>
       </c>
       <c r="K4">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -956,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -971,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="K5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1003,10 +1006,10 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1023,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1041,10 +1044,7 @@
         <v>500</v>
       </c>
       <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1076,13 +1076,10 @@
         <v>38</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1096,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1111,16 +1108,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1134,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1149,13 +1143,13 @@
         <v>38</v>
       </c>
       <c r="K10">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1184,13 +1178,13 @@
         <v>38</v>
       </c>
       <c r="K11">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1204,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1222,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1242,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1254,16 +1248,16 @@
         <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1292,13 +1286,13 @@
         <v>38</v>
       </c>
       <c r="K14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1327,13 +1321,13 @@
         <v>38</v>
       </c>
       <c r="K15">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1347,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1362,19 +1356,19 @@
         <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1385,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1393,20 +1387,23 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1417,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1432,30 +1429,33 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -1464,36 +1464,39 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1522,22 +1525,22 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A16CA-3C9E-4AA0-8278-391A4CE5342A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24348BB-EC89-44FA-A351-A0902FBB2F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -202,30 +202,15 @@
     <t>GuideQuestDesc_13</t>
   </si>
   <si>
-    <t>GuideQuestDesc_17</t>
-  </si>
-  <si>
-    <t>GuideQuestDesc_25</t>
-  </si>
-  <si>
     <t>ShopUIName_CharacterBox</t>
   </si>
   <si>
-    <t>GuideQuestDesc_14_any</t>
+    <t>GuideQuestDesc_11</t>
   </si>
   <si>
     <t>GuideQuestDesc_9</t>
   </si>
   <si>
-    <t>GuideQuestDesc_19</t>
-  </si>
-  <si>
-    <t>GuideQuestDesc_20_staff</t>
-  </si>
-  <si>
-    <t>GuideQuestDesc_14</t>
-  </si>
-  <si>
     <t>Actor1005</t>
   </si>
   <si>
@@ -233,6 +218,21 @@
   </si>
   <si>
     <t>Actor1002</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_18</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_24</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_15</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_13_any</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_19_staff</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
         <v>41</v>
@@ -1516,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24348BB-EC89-44FA-A351-A0902FBB2F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F55F32-6D31-4C86-8144-531E141ED95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>type|String</t>
   </si>
@@ -157,6 +157,9 @@
     <t>EN</t>
   </si>
   <si>
+    <t>be</t>
+  </si>
+  <si>
     <t>bc</t>
   </si>
   <si>
@@ -196,12 +199,18 @@
     <t>param|String</t>
   </si>
   <si>
+    <t>bm</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_12</t>
   </si>
   <si>
     <t>GuideQuestDesc_13</t>
   </si>
   <si>
+    <t>GuideQuestDesc_25</t>
+  </si>
+  <si>
     <t>ShopUIName_CharacterBox</t>
   </si>
   <si>
@@ -233,6 +242,12 @@
   </si>
   <si>
     <t>GuideQuestDesc_19_staff</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_20</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Equipment3</t>
   </si>
 </sst>
 </file>
@@ -621,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -641,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -661,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -681,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -701,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -721,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -741,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -761,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -781,7 +796,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -798,7 +813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -813,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -825,13 +840,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -895,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -959,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -991,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1026,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1058,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1067,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1093,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1128,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1149,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1184,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1198,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1222,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1236,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1257,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1292,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1327,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1341,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1365,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1379,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1400,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1414,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1435,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1470,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1493,10 +1508,10 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1516,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1525,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
@@ -1534,7 +1549,7 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1551,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1572,6 +1587,362 @@
         <v>700</v>
       </c>
       <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23">
+        <v>500</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24">
+        <v>300</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>300</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>400</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>200</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>500</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31">
+        <v>300</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F55F32-6D31-4C86-8144-531E141ED95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3555C98B-C2F5-4A3A-8AE5-B767EBF9225D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
   <si>
     <t>type|String</t>
   </si>
@@ -220,9 +220,6 @@
     <t>GuideQuestDesc_9</t>
   </si>
   <si>
-    <t>Actor1005</t>
-  </si>
-  <si>
     <t>GuideQuestDesc_16</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>GuideQuestDesc_15</t>
   </si>
   <si>
-    <t>GuideQuestDesc_13_any</t>
-  </si>
-  <si>
     <t>GuideQuestDesc_19_staff</t>
   </si>
   <si>
@@ -248,6 +242,9 @@
   </si>
   <si>
     <t>GuideQuestReward_Equipment3</t>
+  </si>
+  <si>
+    <t>Actor0240</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1073,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1082,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1108,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1143,13 +1140,16 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1429,13 +1429,16 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
@@ -1540,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1590,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1604,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1628,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1663,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1698,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1733,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1768,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1803,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1811,19 +1814,19 @@
         <v>27</v>
       </c>
       <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
@@ -1838,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1873,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1908,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1934,7 +1937,7 @@
         <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
         <v>55</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3555C98B-C2F5-4A3A-8AE5-B767EBF9225D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0C972-8693-4F89-A7E1-9D26075EB00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -1032,19 +1032,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -1053,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="K7">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1064,22 +1064,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1088,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="K8">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1099,31 +1096,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1134,31 +1131,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>63</v>
+      <c r="G10">
+        <v>130</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1172,19 +1169,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -1193,7 +1193,7 @@
         <v>38</v>
       </c>
       <c r="K11">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1257,6 +1257,9 @@
         <v>1</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
       <c r="I13" t="s">
@@ -1651,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
         <v>37</v>
@@ -1686,6 +1689,9 @@
         <v>1</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>7</v>
       </c>
       <c r="I25" t="s">

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0C972-8693-4F89-A7E1-9D26075EB00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B0BE0-80CB-4522-B1EB-511533DAB5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="80">
   <si>
     <t>type|String</t>
   </si>
@@ -208,6 +208,9 @@
     <t>GuideQuestDesc_13</t>
   </si>
   <si>
+    <t>GuideQuestDesc_17</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_25</t>
   </si>
   <si>
@@ -220,12 +223,18 @@
     <t>GuideQuestDesc_9</t>
   </si>
   <si>
+    <t>GuideQuestDesc_14</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_16</t>
   </si>
   <si>
     <t>Actor1002</t>
   </si>
   <si>
+    <t>GuideQuestDesc_21</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_18</t>
   </si>
   <si>
@@ -245,6 +254,24 @@
   </si>
   <si>
     <t>Actor0240</t>
+  </si>
+  <si>
+    <t>Actor0201</t>
+  </si>
+  <si>
+    <t>Actor2103</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_19_axe</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Equipment5</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_19_bow</t>
   </si>
 </sst>
 </file>
@@ -810,7 +837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,13 +928,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -933,19 +960,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
@@ -954,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="K4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -965,19 +995,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
@@ -986,7 +1016,7 @@
         <v>38</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -997,23 +1027,20 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>110</v>
-      </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="K6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1032,19 +1059,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
@@ -1053,7 +1083,7 @@
         <v>38</v>
       </c>
       <c r="K7">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1064,19 +1094,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
@@ -1096,22 +1126,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
@@ -1131,22 +1158,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>130</v>
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -1161,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1169,22 +1196,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>63</v>
+      <c r="G11">
+        <v>7</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -1199,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1207,13 +1234,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1222,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -1237,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1245,22 +1272,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -1275,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1283,19 +1307,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -1310,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1345,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1353,13 +1380,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1383,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1391,19 +1418,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
@@ -1418,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1426,10 +1453,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -1440,9 +1467,6 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
@@ -1456,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1464,19 +1488,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -1491,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1514,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
@@ -1531,7 +1558,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1546,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
@@ -1566,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1596,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1604,22 +1631,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
         <v>37</v>
@@ -1634,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1642,19 +1666,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>37</v>
@@ -1669,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1683,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1692,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
         <v>41</v>
@@ -1707,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1715,13 +1739,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1742,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1777,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1812,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1820,19 +1844,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+      <c r="G29" t="s">
+        <v>75</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
@@ -1847,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1855,19 +1882,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>37</v>
@@ -1882,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1890,19 +1917,19 @@
         <v>29</v>
       </c>
       <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
@@ -1917,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1925,25 +1952,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
         <v>55</v>
@@ -1952,6 +1979,1184 @@
         <v>3</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33">
+        <v>500</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34">
+        <v>500</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35">
+        <v>500</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36">
+        <v>500</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37">
+        <v>500</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>310</v>
+      </c>
+      <c r="I38" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38">
+        <v>500</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39">
+        <v>500</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40">
+        <v>500</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41">
+        <v>500</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42">
+        <v>500</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43">
+        <v>500</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>320</v>
+      </c>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45">
+        <v>500</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46">
+        <v>500</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47">
+        <v>500</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48">
+        <v>500</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>120</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49">
+        <v>500</v>
+      </c>
+      <c r="L49">
+        <v>9</v>
+      </c>
+      <c r="M49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50">
+        <v>500</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>330</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51">
+        <v>500</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52">
+        <v>500</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+      <c r="M52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53">
+        <v>500</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54">
+        <v>500</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55">
+        <v>500</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56">
+        <v>500</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="I57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57">
+        <v>500</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>340</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59">
+        <v>500</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60">
+        <v>500</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61">
+        <v>500</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>500</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>500</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64">
+        <v>500</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65">
+        <v>500</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>350</v>
+      </c>
+      <c r="I66" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66">
+        <v>500</v>
+      </c>
+      <c r="L66">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B0BE0-80CB-4522-B1EB-511533DAB5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B2CE8-B623-435C-B94D-100883BB297B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="82">
   <si>
     <t>type|String</t>
   </si>
@@ -223,6 +223,9 @@
     <t>GuideQuestDesc_9</t>
   </si>
   <si>
+    <t>GuideQuestDesc_19</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_14</t>
   </si>
   <si>
@@ -272,6 +275,9 @@
   </si>
   <si>
     <t>GuideQuestDesc_19_bow</t>
+  </si>
+  <si>
+    <t>key|String</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,11 +852,12 @@
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -873,25 +880,28 @@
         <v>54</v>
       </c>
       <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -910,20 +920,23 @@
       <c r="F2">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
+      <c r="H2">
+        <v>783</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -942,20 +955,23 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
+      <c r="H3">
+        <v>767</v>
       </c>
       <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -963,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -975,22 +991,25 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>381</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4">
         <v>200</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -998,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1009,20 +1028,23 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
+      <c r="H5">
+        <v>910</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
         <v>300</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1041,20 +1063,23 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
+      <c r="H6">
+        <v>234</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6">
         <v>200</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1062,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1076,20 +1101,23 @@
       <c r="G7">
         <v>110</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
+      <c r="H7">
+        <v>424</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7">
         <v>1000</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1097,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1108,20 +1136,23 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
+      <c r="H8">
+        <v>903</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1129,10 +1160,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1140,20 +1171,23 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>37</v>
+      <c r="H9">
+        <v>949</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9">
         <v>200</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1161,10 +1195,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1173,25 +1207,28 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>482</v>
       </c>
       <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
         <v>39</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1199,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
@@ -1213,134 +1250,143 @@
       <c r="G11">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
+      <c r="H11">
+        <v>779</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11">
         <v>200</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>9</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>130</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>555</v>
       </c>
       <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
         <v>39</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>442</v>
       </c>
       <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
         <v>40</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>25</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>7</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>150</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>336</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14">
         <v>300</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1348,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1359,23 +1405,26 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="I15" t="s">
-        <v>37</v>
+      <c r="H15">
+        <v>309</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
         <v>400</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>5</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1383,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1397,23 +1446,26 @@
       <c r="G16">
         <v>210</v>
       </c>
-      <c r="I16" t="s">
-        <v>37</v>
+      <c r="H16">
+        <v>515</v>
       </c>
       <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
         <v>39</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1421,7 +1473,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1432,23 +1484,26 @@
       <c r="F17">
         <v>12</v>
       </c>
-      <c r="I17" t="s">
-        <v>37</v>
+      <c r="H17">
+        <v>635</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
+        <v>37</v>
+      </c>
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17">
         <v>200</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1456,34 +1511,37 @@
         <v>17</v>
       </c>
       <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>686</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18">
+        <v>300</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>300</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1494,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1505,55 +1563,61 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
+      <c r="H19">
+        <v>428</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>607</v>
+      </c>
+      <c r="I20" t="s">
         <v>60</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>42</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1561,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -1573,675 +1637,729 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="H21">
+        <v>358</v>
       </c>
       <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
         <v>40</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>230</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>470</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22">
         <v>700</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>10</v>
       </c>
-      <c r="M22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>312</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
       </c>
       <c r="L23">
+        <v>500</v>
+      </c>
+      <c r="M23">
         <v>9</v>
       </c>
-      <c r="M23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
-        <v>37</v>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>168</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24">
         <v>300</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>8</v>
       </c>
-      <c r="M24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
         <v>41</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>7</v>
       </c>
-      <c r="M25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>824</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26">
         <v>300</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>6</v>
       </c>
-      <c r="M26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>545</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>400</v>
+      </c>
+      <c r="M27">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27">
-        <v>400</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28">
+        <v>517</v>
       </c>
       <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="M28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>861</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
         <v>200</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="M29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>37</v>
+      <c r="H30">
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
       </c>
       <c r="L30">
+        <v>500</v>
+      </c>
+      <c r="M30">
         <v>2</v>
       </c>
-      <c r="M30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>250</v>
+      </c>
+      <c r="H31">
+        <v>223</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
         <v>300</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>250</v>
-      </c>
-      <c r="H32" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>265</v>
       </c>
       <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
         <v>55</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33">
+        <v>609</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
       </c>
       <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>914</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
       </c>
       <c r="L34">
+        <v>500</v>
+      </c>
+      <c r="M34">
         <v>10</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>180</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
       </c>
       <c r="L35">
+        <v>500</v>
+      </c>
+      <c r="M35">
         <v>9</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="I36" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>550</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
       </c>
       <c r="L36">
+        <v>500</v>
+      </c>
+      <c r="M36">
         <v>8</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>505</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
       </c>
       <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37">
         <v>7</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>310</v>
-      </c>
-      <c r="I38" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>819</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
       </c>
       <c r="L38">
+        <v>500</v>
+      </c>
+      <c r="M38">
         <v>6</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
       </c>
       <c r="L39">
+        <v>500</v>
+      </c>
+      <c r="M39">
         <v>5</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2249,702 +2367,753 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>37</v>
+      <c r="H40">
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
       </c>
       <c r="L40">
+        <v>500</v>
+      </c>
+      <c r="M40">
         <v>4</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="I41" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>484</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
       </c>
       <c r="L41">
+        <v>500</v>
+      </c>
+      <c r="M41">
         <v>3</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>696</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
       </c>
       <c r="L42">
+        <v>500</v>
+      </c>
+      <c r="M42">
         <v>2</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>37</v>
+      <c r="H43">
+        <v>815</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
-      </c>
-      <c r="K43">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
       </c>
       <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>731</v>
+      </c>
+      <c r="I44" t="s">
         <v>60</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>42</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
       <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>320</v>
-      </c>
-      <c r="I45" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>768</v>
       </c>
       <c r="J45" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>37</v>
+        <v>120</v>
+      </c>
+      <c r="H46">
+        <v>772</v>
       </c>
       <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
       </c>
       <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>902</v>
       </c>
       <c r="J47" t="s">
-        <v>38</v>
-      </c>
-      <c r="K47">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="I48" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>148</v>
       </c>
       <c r="J48" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
       </c>
       <c r="L48">
+        <v>500</v>
+      </c>
+      <c r="M48">
         <v>10</v>
       </c>
-      <c r="M48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>120</v>
-      </c>
-      <c r="I49" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>758</v>
       </c>
       <c r="J49" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
       </c>
       <c r="L49">
+        <v>500</v>
+      </c>
+      <c r="M49">
         <v>9</v>
       </c>
-      <c r="M49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50">
+        <v>177</v>
       </c>
       <c r="J50" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
       </c>
       <c r="L50">
+        <v>500</v>
+      </c>
+      <c r="M50">
         <v>8</v>
       </c>
-      <c r="M50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>330</v>
-      </c>
-      <c r="I51" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>535</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
-      </c>
-      <c r="K51">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
       </c>
       <c r="L51">
+        <v>500</v>
+      </c>
+      <c r="M51">
         <v>7</v>
       </c>
-      <c r="M51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <v>500</v>
+      </c>
+      <c r="M52">
         <v>6</v>
       </c>
-      <c r="I52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s">
-        <v>38</v>
-      </c>
-      <c r="K52">
-        <v>500</v>
-      </c>
-      <c r="L52">
-        <v>6</v>
-      </c>
-      <c r="M52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="H53">
+        <v>374</v>
+      </c>
+      <c r="J53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53">
+        <v>500</v>
+      </c>
+      <c r="M53">
         <v>5</v>
       </c>
-      <c r="I53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K53">
-        <v>500</v>
-      </c>
-      <c r="L53">
-        <v>5</v>
-      </c>
-      <c r="M53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s">
-        <v>37</v>
+      <c r="G54">
+        <v>340</v>
+      </c>
+      <c r="H54">
+        <v>445</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
-      </c>
-      <c r="K54">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
       </c>
       <c r="L54">
+        <v>500</v>
+      </c>
+      <c r="M54">
         <v>4</v>
       </c>
-      <c r="M54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>558</v>
+      </c>
+      <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55">
+        <v>500</v>
+      </c>
+      <c r="M55">
         <v>3</v>
       </c>
-      <c r="I55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" t="s">
-        <v>38</v>
-      </c>
-      <c r="K55">
-        <v>500</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>898</v>
+      </c>
+      <c r="J56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56">
+        <v>500</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
         <v>79</v>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56">
-        <v>500</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>50</v>
-      </c>
-      <c r="I57" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>429</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
       </c>
       <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58">
-        <v>340</v>
-      </c>
-      <c r="H58" t="s">
-        <v>78</v>
+      <c r="H58">
+        <v>885</v>
       </c>
       <c r="I58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s">
         <v>55</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>5</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>37</v>
+      <c r="H59">
+        <v>780</v>
       </c>
       <c r="J59" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
       </c>
       <c r="L59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2952,211 +3121,232 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
-        <v>37</v>
+      <c r="H60">
+        <v>737</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
       </c>
       <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="I61" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>133</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
       </c>
       <c r="L61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
-        <v>37</v>
+      <c r="G62">
+        <v>350</v>
+      </c>
+      <c r="H62">
+        <v>631</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
       </c>
       <c r="L62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="I63" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="H63">
+        <v>509</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>38</v>
       </c>
       <c r="L63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H64">
+        <v>954</v>
       </c>
       <c r="J64" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
       </c>
       <c r="L64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s">
-        <v>37</v>
+        <v>250</v>
+      </c>
+      <c r="H65">
+        <v>237</v>
       </c>
       <c r="J65" t="s">
-        <v>38</v>
-      </c>
-      <c r="K65">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K65" t="s">
+        <v>38</v>
       </c>
       <c r="L65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>15</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>350</v>
-      </c>
-      <c r="I66" t="s">
-        <v>37</v>
+      <c r="H66">
+        <v>884</v>
       </c>
       <c r="J66" t="s">
-        <v>38</v>
-      </c>
-      <c r="K66">
-        <v>500</v>
+        <v>37</v>
+      </c>
+      <c r="K66" t="s">
+        <v>38</v>
       </c>
       <c r="L66">
+        <v>500</v>
+      </c>
+      <c r="M66">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834B2CE8-B623-435C-B94D-100883BB297B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5C9E3-E763-4036-BAD7-69095EC45F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="82">
   <si>
     <t>type|String</t>
   </si>
@@ -277,7 +277,7 @@
     <t>GuideQuestDesc_19_bow</t>
   </si>
   <si>
-    <t>key|String</t>
+    <t>key|Int</t>
   </si>
 </sst>
 </file>
@@ -2122,19 +2122,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>914</v>
@@ -2160,19 +2160,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>180</v>
@@ -2198,19 +2198,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
         <v>550</v>
@@ -2236,19 +2239,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>505</v>
@@ -2274,22 +2277,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>819</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H39">
         <v>181</v>
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>484</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H42">
         <v>696</v>
@@ -2881,24 +2881,6 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>340</v>
-      </c>
       <c r="H54">
         <v>445</v>
       </c>
@@ -3175,24 +3157,6 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
-      </c>
-      <c r="B62">
-        <v>15</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>350</v>
       </c>
       <c r="H62">
         <v>631</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5C9E3-E763-4036-BAD7-69095EC45F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CEE53-BBA9-40C2-9FF8-6E95F3BCE7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="90">
   <si>
     <t>type|String</t>
   </si>
@@ -223,12 +223,12 @@
     <t>GuideQuestDesc_9</t>
   </si>
   <si>
-    <t>GuideQuestDesc_19</t>
-  </si>
-  <si>
     <t>GuideQuestDesc_14</t>
   </si>
   <si>
+    <t>Actor1005</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_16</t>
   </si>
   <si>
@@ -253,9 +253,6 @@
     <t>GuideQuestDesc_20</t>
   </si>
   <si>
-    <t>GuideQuestReward_Equipment3</t>
-  </si>
-  <si>
     <t>Actor0240</t>
   </si>
   <si>
@@ -278,6 +275,33 @@
   </si>
   <si>
     <t>key|Int</t>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox1</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Gold10000</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_EpicEquipment3</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Gold12500</t>
+  </si>
+  <si>
+    <t>Actor0007</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_EpicEquipment5</t>
+  </si>
+  <si>
+    <t>Actor2010</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Gem10</t>
+  </si>
+  <si>
+    <t>GuideQuestReward_Gold15000</t>
   </si>
 </sst>
 </file>
@@ -843,7 +867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +904,7 @@
         <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
@@ -930,7 +954,7 @@
         <v>38</v>
       </c>
       <c r="L2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1073,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="L6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1111,7 +1135,7 @@
         <v>38</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1139,14 +1163,14 @@
       <c r="H8">
         <v>903</v>
       </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L8">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1181,7 +1205,7 @@
         <v>38</v>
       </c>
       <c r="L9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1295,10 +1319,10 @@
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -1377,7 +1401,7 @@
         <v>38</v>
       </c>
       <c r="L14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -1453,10 +1477,10 @@
         <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -1487,14 +1511,14 @@
       <c r="H17">
         <v>635</v>
       </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
       <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L17">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>3</v>
@@ -1573,7 +1597,7 @@
         <v>38</v>
       </c>
       <c r="L19">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1637,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21">
         <v>358</v>
@@ -1646,10 +1670,10 @@
         <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1681,16 +1705,13 @@
         <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L22">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1722,13 +1743,10 @@
         <v>38</v>
       </c>
       <c r="L23">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M23">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1766,10 +1784,10 @@
         <v>300</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1794,20 +1812,20 @@
       <c r="H25">
         <v>209</v>
       </c>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
       <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1839,13 +1857,13 @@
         <v>38</v>
       </c>
       <c r="L26">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1880,10 +1898,10 @@
         <v>400</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1906,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28">
         <v>517</v>
@@ -1915,16 +1933,16 @@
         <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1953,16 +1971,16 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L29">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1994,13 +2012,13 @@
         <v>38</v>
       </c>
       <c r="L30">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2035,13 +2053,13 @@
         <v>38</v>
       </c>
       <c r="L31">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2066,17 +2084,20 @@
       <c r="H32">
         <v>265</v>
       </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2090,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2099,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33">
         <v>609</v>
@@ -2111,10 +2132,13 @@
         <v>38</v>
       </c>
       <c r="L33">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2134,25 +2158,22 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H34">
         <v>914</v>
       </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
       <c r="J34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L34">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2184,13 +2205,10 @@
         <v>38</v>
       </c>
       <c r="L35">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M35">
-        <v>9</v>
-      </c>
-      <c r="N35" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2204,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2225,13 +2243,10 @@
         <v>38</v>
       </c>
       <c r="L36">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M36">
-        <v>8</v>
-      </c>
-      <c r="N36" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2251,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>505</v>
@@ -2263,13 +2278,13 @@
         <v>38</v>
       </c>
       <c r="L37">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2298,16 +2313,16 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L38">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2339,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="L39">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N39" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2377,13 +2392,13 @@
         <v>38</v>
       </c>
       <c r="L40">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N40" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2408,20 +2423,20 @@
       <c r="H41">
         <v>484</v>
       </c>
+      <c r="I41" t="s">
+        <v>81</v>
+      </c>
       <c r="J41" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L41">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2453,13 +2468,13 @@
         <v>38</v>
       </c>
       <c r="L42">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2479,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <v>815</v>
@@ -2488,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L43">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2517,22 +2532,25 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H44">
         <v>731</v>
       </c>
-      <c r="I44" t="s">
-        <v>60</v>
-      </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2564,10 +2582,13 @@
         <v>38</v>
       </c>
       <c r="L45">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2587,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H46">
         <v>772</v>
@@ -2599,10 +2620,13 @@
         <v>38</v>
       </c>
       <c r="L46">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2622,11 +2646,14 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>902</v>
       </c>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
       <c r="J47" t="s">
         <v>37</v>
       </c>
@@ -2634,7 +2661,7 @@
         <v>38</v>
       </c>
       <c r="L47">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2660,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <v>148</v>
@@ -2672,13 +2699,13 @@
         <v>38</v>
       </c>
       <c r="L48">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -2710,13 +2737,13 @@
         <v>38</v>
       </c>
       <c r="L49">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2730,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -2739,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50">
         <v>177</v>
@@ -2751,13 +2778,13 @@
         <v>38</v>
       </c>
       <c r="L50">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2771,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -2789,13 +2816,13 @@
         <v>38</v>
       </c>
       <c r="L51">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2809,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -2830,13 +2857,13 @@
         <v>38</v>
       </c>
       <c r="L52">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2856,31 +2883,46 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H53">
         <v>374</v>
       </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
       <c r="J53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K53" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
       <c r="H54">
         <v>445</v>
       </c>
@@ -2891,13 +2933,10 @@
         <v>38</v>
       </c>
       <c r="L54">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M54">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2917,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>558</v>
@@ -2929,13 +2968,10 @@
         <v>38</v>
       </c>
       <c r="L55">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M55">
-        <v>3</v>
-      </c>
-      <c r="N55" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -2967,13 +3003,10 @@
         <v>38</v>
       </c>
       <c r="L56">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M56">
-        <v>2</v>
-      </c>
-      <c r="N56" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -2981,19 +3014,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="H57">
         <v>429</v>
@@ -3002,16 +3035,16 @@
         <v>37</v>
       </c>
       <c r="K57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L57">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3036,17 +3069,20 @@
       <c r="H58">
         <v>885</v>
       </c>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3066,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>780</v>
@@ -3081,7 +3117,10 @@
         <v>500</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N59" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3089,19 +3128,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>1</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
       </c>
       <c r="H60">
         <v>737</v>
@@ -3113,10 +3155,13 @@
         <v>38</v>
       </c>
       <c r="L60">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="N60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3136,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H61">
         <v>133</v>
@@ -3148,16 +3193,34 @@
         <v>38</v>
       </c>
       <c r="L61">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
       <c r="H62">
         <v>631</v>
       </c>
@@ -3168,10 +3231,13 @@
         <v>38</v>
       </c>
       <c r="L62">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3191,22 +3257,25 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H63">
         <v>509</v>
       </c>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
       <c r="J63" t="s">
-        <v>37</v>
-      </c>
-      <c r="K63" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L63">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3226,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>954</v>
@@ -3238,13 +3307,16 @@
         <v>38</v>
       </c>
       <c r="L64">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3276,10 +3348,13 @@
         <v>500</v>
       </c>
       <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3296,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>884</v>
@@ -3308,9 +3383,5168 @@
         <v>38</v>
       </c>
       <c r="L66">
+        <v>200</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>796</v>
+      </c>
+      <c r="I67" t="s">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>602</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68">
+        <v>700</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69">
+        <v>303</v>
+      </c>
+      <c r="J69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69">
+        <v>300</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>225</v>
+      </c>
+      <c r="H70">
+        <v>268</v>
+      </c>
+      <c r="J70" t="s">
+        <v>37</v>
+      </c>
+      <c r="K70" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70">
+        <v>600</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>298</v>
+      </c>
+      <c r="J71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>9</v>
+      </c>
+      <c r="N71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>130</v>
+      </c>
+      <c r="J72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72">
+        <v>300</v>
+      </c>
+      <c r="M72">
+        <v>8</v>
+      </c>
+      <c r="N72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>532</v>
+      </c>
+      <c r="J73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73">
         <v>500</v>
       </c>
-      <c r="M66">
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>662</v>
+      </c>
+      <c r="J74" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74">
+        <v>400</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>120</v>
+      </c>
+      <c r="H75">
+        <v>101</v>
+      </c>
+      <c r="I75" t="s">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>710</v>
+      </c>
+      <c r="J76" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76">
+        <v>600</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="H77">
+        <v>334</v>
+      </c>
+      <c r="J77" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77">
+        <v>300</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>400</v>
+      </c>
+      <c r="J78" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78">
+        <v>500</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>404</v>
+      </c>
+      <c r="J79" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79">
+        <v>200</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>685</v>
+      </c>
+      <c r="I80" t="s">
+        <v>84</v>
+      </c>
+      <c r="J80" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80">
+        <v>12500</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>943</v>
+      </c>
+      <c r="J81" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81">
+        <v>400</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>350</v>
+      </c>
+      <c r="H82">
+        <v>668</v>
+      </c>
+      <c r="J82" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82">
+        <v>700</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83">
+        <v>736</v>
+      </c>
+      <c r="I83" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s">
+        <v>55</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>10</v>
+      </c>
+      <c r="N83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="H84">
+        <v>966</v>
+      </c>
+      <c r="J84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84">
+        <v>400</v>
+      </c>
+      <c r="M84">
+        <v>9</v>
+      </c>
+      <c r="N84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>618</v>
+      </c>
+      <c r="J85" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85">
+        <v>200</v>
+      </c>
+      <c r="M85">
+        <v>8</v>
+      </c>
+      <c r="N85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>830</v>
+      </c>
+      <c r="J86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>7</v>
+      </c>
+      <c r="N86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>399</v>
+      </c>
+      <c r="J87" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87">
+        <v>400</v>
+      </c>
+      <c r="M87">
+        <v>6</v>
+      </c>
+      <c r="N87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <v>335</v>
+      </c>
+      <c r="J88" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88">
+        <v>300</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="H89">
+        <v>168</v>
+      </c>
+      <c r="J89" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89">
+        <v>100</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>22</v>
+      </c>
+      <c r="H90">
+        <v>925</v>
+      </c>
+      <c r="J90" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>38</v>
+      </c>
+      <c r="L90">
+        <v>200</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>200</v>
+      </c>
+      <c r="H91">
+        <v>291</v>
+      </c>
+      <c r="J91" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>38</v>
+      </c>
+      <c r="L91">
+        <v>400</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>216</v>
+      </c>
+      <c r="J92" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92">
+        <v>200</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>25</v>
+      </c>
+      <c r="H93">
+        <v>284</v>
+      </c>
+      <c r="I93" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>80</v>
+      </c>
+      <c r="H94">
+        <v>674</v>
+      </c>
+      <c r="J94" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94">
+        <v>600</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>235</v>
+      </c>
+      <c r="J95" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95">
+        <v>500</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
+      <c r="H96">
+        <v>206</v>
+      </c>
+      <c r="J96" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" t="s">
+        <v>38</v>
+      </c>
+      <c r="L96">
+        <v>300</v>
+      </c>
+      <c r="M96">
+        <v>10</v>
+      </c>
+      <c r="N96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>516</v>
+      </c>
+      <c r="J97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>9</v>
+      </c>
+      <c r="N97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>11</v>
+      </c>
+      <c r="H98">
+        <v>615</v>
+      </c>
+      <c r="J98" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98">
+        <v>200</v>
+      </c>
+      <c r="M98">
+        <v>8</v>
+      </c>
+      <c r="N98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>150</v>
+      </c>
+      <c r="H99">
+        <v>720</v>
+      </c>
+      <c r="J99" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" t="s">
+        <v>38</v>
+      </c>
+      <c r="L99">
+        <v>400</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>18</v>
+      </c>
+      <c r="H100">
+        <v>543</v>
+      </c>
+      <c r="J100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" t="s">
+        <v>38</v>
+      </c>
+      <c r="L100">
+        <v>300</v>
+      </c>
+      <c r="M100">
+        <v>6</v>
+      </c>
+      <c r="N100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>350</v>
+      </c>
+      <c r="I101" t="s">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="H102">
+        <v>553</v>
+      </c>
+      <c r="J102" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" t="s">
+        <v>38</v>
+      </c>
+      <c r="L102">
+        <v>100</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>22</v>
+      </c>
+      <c r="H103">
+        <v>225</v>
+      </c>
+      <c r="J103" t="s">
+        <v>37</v>
+      </c>
+      <c r="K103" t="s">
+        <v>38</v>
+      </c>
+      <c r="L103">
+        <v>300</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>240</v>
+      </c>
+      <c r="H104">
+        <v>454</v>
+      </c>
+      <c r="J104" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" t="s">
+        <v>38</v>
+      </c>
+      <c r="L104">
+        <v>200</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>624</v>
+      </c>
+      <c r="J105" t="s">
+        <v>37</v>
+      </c>
+      <c r="K105" t="s">
+        <v>38</v>
+      </c>
+      <c r="L105">
+        <v>300</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>25</v>
+      </c>
+      <c r="H106">
+        <v>841</v>
+      </c>
+      <c r="I106" t="s">
+        <v>88</v>
+      </c>
+      <c r="J106" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106">
+        <v>10</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>910</v>
+      </c>
+      <c r="J107" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107" t="s">
+        <v>38</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107">
+        <v>6</v>
+      </c>
+      <c r="N107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>784</v>
+      </c>
+      <c r="J108" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108">
+        <v>400</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <v>945</v>
+      </c>
+      <c r="J109" t="s">
+        <v>37</v>
+      </c>
+      <c r="K109" t="s">
+        <v>38</v>
+      </c>
+      <c r="L109">
+        <v>200</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>208</v>
+      </c>
+      <c r="I110" t="s">
+        <v>81</v>
+      </c>
+      <c r="J110" t="s">
+        <v>55</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>13</v>
+      </c>
+      <c r="H111">
+        <v>504</v>
+      </c>
+      <c r="J111" t="s">
+        <v>37</v>
+      </c>
+      <c r="K111" t="s">
+        <v>38</v>
+      </c>
+      <c r="L111">
+        <v>100</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>320</v>
+      </c>
+      <c r="H112">
+        <v>623</v>
+      </c>
+      <c r="J112" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" t="s">
+        <v>38</v>
+      </c>
+      <c r="L112">
+        <v>200</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
+      </c>
+      <c r="H113">
+        <v>376</v>
+      </c>
+      <c r="I113" t="s">
+        <v>60</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>944</v>
+      </c>
+      <c r="J114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" t="s">
+        <v>38</v>
+      </c>
+      <c r="L114">
+        <v>800</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>14</v>
+      </c>
+      <c r="H115">
+        <v>147</v>
+      </c>
+      <c r="J115" t="s">
+        <v>37</v>
+      </c>
+      <c r="K115" t="s">
+        <v>38</v>
+      </c>
+      <c r="L115">
+        <v>500</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
+      <c r="H116">
+        <v>551</v>
+      </c>
+      <c r="J116" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116">
+        <v>300</v>
+      </c>
+      <c r="M116">
+        <v>10</v>
+      </c>
+      <c r="N116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>102</v>
+      </c>
+      <c r="J117" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" t="s">
+        <v>38</v>
+      </c>
+      <c r="L117">
+        <v>200</v>
+      </c>
+      <c r="M117">
+        <v>9</v>
+      </c>
+      <c r="N117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>11</v>
+      </c>
+      <c r="H118">
+        <v>706</v>
+      </c>
+      <c r="J118" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118">
+        <v>500</v>
+      </c>
+      <c r="M118">
+        <v>8</v>
+      </c>
+      <c r="N118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>130</v>
+      </c>
+      <c r="H119">
+        <v>476</v>
+      </c>
+      <c r="J119" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" t="s">
+        <v>39</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>7</v>
+      </c>
+      <c r="N119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>707</v>
+      </c>
+      <c r="J120" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" t="s">
+        <v>38</v>
+      </c>
+      <c r="L120">
+        <v>300</v>
+      </c>
+      <c r="M120">
+        <v>6</v>
+      </c>
+      <c r="N120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>250</v>
+      </c>
+      <c r="H121">
+        <v>394</v>
+      </c>
+      <c r="J121" t="s">
+        <v>37</v>
+      </c>
+      <c r="K121" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121">
+        <v>200</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>15</v>
+      </c>
+      <c r="H122">
+        <v>614</v>
+      </c>
+      <c r="J122" t="s">
+        <v>37</v>
+      </c>
+      <c r="K122" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122">
+        <v>100</v>
+      </c>
+      <c r="M122">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>172</v>
+      </c>
+      <c r="I123" t="s">
+        <v>81</v>
+      </c>
+      <c r="J123" t="s">
+        <v>55</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>762</v>
+      </c>
+      <c r="J124" t="s">
+        <v>37</v>
+      </c>
+      <c r="K124" t="s">
+        <v>38</v>
+      </c>
+      <c r="L124">
+        <v>400</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>936</v>
+      </c>
+      <c r="J125" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125">
+        <v>200</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>35</v>
+      </c>
+      <c r="H126">
+        <v>168</v>
+      </c>
+      <c r="I126" t="s">
+        <v>89</v>
+      </c>
+      <c r="J126" t="s">
+        <v>37</v>
+      </c>
+      <c r="K126" t="s">
+        <v>38</v>
+      </c>
+      <c r="L126">
+        <v>15000</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>25</v>
+      </c>
+      <c r="H127">
+        <v>212</v>
+      </c>
+      <c r="J127" t="s">
+        <v>37</v>
+      </c>
+      <c r="K127" t="s">
+        <v>38</v>
+      </c>
+      <c r="L127">
+        <v>700</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>10</v>
+      </c>
+      <c r="H128">
+        <v>980</v>
+      </c>
+      <c r="J128" t="s">
+        <v>37</v>
+      </c>
+      <c r="K128" t="s">
+        <v>38</v>
+      </c>
+      <c r="L128">
+        <v>200</v>
+      </c>
+      <c r="M128">
+        <v>10</v>
+      </c>
+      <c r="N128" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>21</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>176</v>
+      </c>
+      <c r="J129" t="s">
+        <v>37</v>
+      </c>
+      <c r="K129" t="s">
+        <v>38</v>
+      </c>
+      <c r="L129">
+        <v>100</v>
+      </c>
+      <c r="M129">
+        <v>9</v>
+      </c>
+      <c r="N129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>745</v>
+      </c>
+      <c r="J130" t="s">
+        <v>37</v>
+      </c>
+      <c r="K130" t="s">
+        <v>38</v>
+      </c>
+      <c r="L130">
+        <v>300</v>
+      </c>
+      <c r="M130">
+        <v>8</v>
+      </c>
+      <c r="N130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="H131">
+        <v>870</v>
+      </c>
+      <c r="J131" t="s">
+        <v>37</v>
+      </c>
+      <c r="K131" t="s">
+        <v>39</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>7</v>
+      </c>
+      <c r="N131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>12</v>
+      </c>
+      <c r="H132">
+        <v>312</v>
+      </c>
+      <c r="J132" t="s">
+        <v>37</v>
+      </c>
+      <c r="K132" t="s">
+        <v>38</v>
+      </c>
+      <c r="L132">
+        <v>200</v>
+      </c>
+      <c r="M132">
+        <v>6</v>
+      </c>
+      <c r="N132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>80</v>
+      </c>
+      <c r="H133">
+        <v>240</v>
+      </c>
+      <c r="J133" t="s">
+        <v>37</v>
+      </c>
+      <c r="K133" t="s">
+        <v>38</v>
+      </c>
+      <c r="L133">
+        <v>300</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>12</v>
+      </c>
+      <c r="H134">
+        <v>285</v>
+      </c>
+      <c r="I134" t="s">
+        <v>81</v>
+      </c>
+      <c r="J134" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>325</v>
+      </c>
+      <c r="H135">
+        <v>670</v>
+      </c>
+      <c r="J135" t="s">
+        <v>37</v>
+      </c>
+      <c r="K135" t="s">
+        <v>38</v>
+      </c>
+      <c r="L135">
+        <v>100</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="H136">
+        <v>767</v>
+      </c>
+      <c r="J136" t="s">
+        <v>37</v>
+      </c>
+      <c r="K136" t="s">
+        <v>38</v>
+      </c>
+      <c r="L136">
+        <v>200</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>768</v>
+      </c>
+      <c r="J137" t="s">
+        <v>37</v>
+      </c>
+      <c r="K137" t="s">
+        <v>38</v>
+      </c>
+      <c r="L137">
+        <v>100</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>25</v>
+      </c>
+      <c r="H138">
+        <v>967</v>
+      </c>
+      <c r="I138" t="s">
+        <v>83</v>
+      </c>
+      <c r="J138" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="H139">
+        <v>764</v>
+      </c>
+      <c r="J139" t="s">
+        <v>37</v>
+      </c>
+      <c r="K139" t="s">
+        <v>38</v>
+      </c>
+      <c r="L139">
+        <v>400</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>60</v>
+      </c>
+      <c r="H140">
+        <v>608</v>
+      </c>
+      <c r="J140" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140" t="s">
+        <v>38</v>
+      </c>
+      <c r="L140">
+        <v>700</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="H141">
+        <v>599</v>
+      </c>
+      <c r="J141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141" t="s">
+        <v>38</v>
+      </c>
+      <c r="L141">
+        <v>300</v>
+      </c>
+      <c r="M141">
+        <v>10</v>
+      </c>
+      <c r="N141" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>11</v>
+      </c>
+      <c r="H142">
+        <v>762</v>
+      </c>
+      <c r="J142" t="s">
+        <v>37</v>
+      </c>
+      <c r="K142" t="s">
+        <v>39</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>9</v>
+      </c>
+      <c r="N142" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="H143">
+        <v>168</v>
+      </c>
+      <c r="J143" t="s">
+        <v>37</v>
+      </c>
+      <c r="K143" t="s">
+        <v>38</v>
+      </c>
+      <c r="L143">
+        <v>200</v>
+      </c>
+      <c r="M143">
+        <v>8</v>
+      </c>
+      <c r="N143" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>120</v>
+      </c>
+      <c r="H144">
+        <v>845</v>
+      </c>
+      <c r="J144" t="s">
+        <v>37</v>
+      </c>
+      <c r="K144" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144">
+        <v>300</v>
+      </c>
+      <c r="M144">
+        <v>7</v>
+      </c>
+      <c r="N144" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>20</v>
+      </c>
+      <c r="H145">
+        <v>438</v>
+      </c>
+      <c r="J145" t="s">
+        <v>37</v>
+      </c>
+      <c r="K145" t="s">
+        <v>38</v>
+      </c>
+      <c r="L145">
+        <v>200</v>
+      </c>
+      <c r="M145">
+        <v>6</v>
+      </c>
+      <c r="N145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>62</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>8</v>
+      </c>
+      <c r="H146">
+        <v>987</v>
+      </c>
+      <c r="J146" t="s">
+        <v>37</v>
+      </c>
+      <c r="K146" t="s">
+        <v>38</v>
+      </c>
+      <c r="L146">
+        <v>100</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>225</v>
+      </c>
+      <c r="H147">
+        <v>610</v>
+      </c>
+      <c r="I147" t="s">
+        <v>81</v>
+      </c>
+      <c r="J147" t="s">
+        <v>55</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="H148">
+        <v>132</v>
+      </c>
+      <c r="J148" t="s">
+        <v>37</v>
+      </c>
+      <c r="K148" t="s">
+        <v>38</v>
+      </c>
+      <c r="L148">
+        <v>300</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>552</v>
+      </c>
+      <c r="J149" t="s">
+        <v>37</v>
+      </c>
+      <c r="K149" t="s">
+        <v>38</v>
+      </c>
+      <c r="L149">
+        <v>400</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>13</v>
+      </c>
+      <c r="H150">
+        <v>431</v>
+      </c>
+      <c r="J150" t="s">
+        <v>37</v>
+      </c>
+      <c r="K150" t="s">
+        <v>38</v>
+      </c>
+      <c r="L150">
+        <v>200</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>505</v>
+      </c>
+      <c r="I151" t="s">
+        <v>88</v>
+      </c>
+      <c r="J151" t="s">
+        <v>37</v>
+      </c>
+      <c r="K151" t="s">
+        <v>39</v>
+      </c>
+      <c r="L151">
+        <v>10</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>61</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>721</v>
+      </c>
+      <c r="J152" t="s">
+        <v>37</v>
+      </c>
+      <c r="K152" t="s">
+        <v>38</v>
+      </c>
+      <c r="L152">
+        <v>300</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>62</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>11</v>
+      </c>
+      <c r="H153">
+        <v>799</v>
+      </c>
+      <c r="J153" t="s">
+        <v>37</v>
+      </c>
+      <c r="K153" t="s">
+        <v>38</v>
+      </c>
+      <c r="L153">
+        <v>500</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>30</v>
+      </c>
+      <c r="H154">
+        <v>253</v>
+      </c>
+      <c r="J154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K154" t="s">
+        <v>38</v>
+      </c>
+      <c r="L154">
+        <v>300</v>
+      </c>
+      <c r="M154">
+        <v>10</v>
+      </c>
+      <c r="N154" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>17</v>
+      </c>
+      <c r="H155">
+        <v>737</v>
+      </c>
+      <c r="I155" t="s">
+        <v>81</v>
+      </c>
+      <c r="J155" t="s">
+        <v>55</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>9</v>
+      </c>
+      <c r="N155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>104</v>
+      </c>
+      <c r="J156" t="s">
+        <v>37</v>
+      </c>
+      <c r="K156" t="s">
+        <v>38</v>
+      </c>
+      <c r="L156">
+        <v>500</v>
+      </c>
+      <c r="M156">
+        <v>8</v>
+      </c>
+      <c r="N156" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>22</v>
+      </c>
+      <c r="H157">
+        <v>592</v>
+      </c>
+      <c r="J157" t="s">
+        <v>37</v>
+      </c>
+      <c r="K157" t="s">
+        <v>38</v>
+      </c>
+      <c r="L157">
+        <v>100</v>
+      </c>
+      <c r="M157">
+        <v>7</v>
+      </c>
+      <c r="N157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>275</v>
+      </c>
+      <c r="H158">
+        <v>216</v>
+      </c>
+      <c r="J158" t="s">
+        <v>37</v>
+      </c>
+      <c r="K158" t="s">
+        <v>38</v>
+      </c>
+      <c r="L158">
+        <v>400</v>
+      </c>
+      <c r="M158">
+        <v>6</v>
+      </c>
+      <c r="N158" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>25</v>
+      </c>
+      <c r="H159">
+        <v>704</v>
+      </c>
+      <c r="J159" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159" t="s">
+        <v>38</v>
+      </c>
+      <c r="L159">
+        <v>500</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="N159" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
+      <c r="H160">
+        <v>883</v>
+      </c>
+      <c r="J160" t="s">
+        <v>37</v>
+      </c>
+      <c r="K160" t="s">
+        <v>39</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>4</v>
+      </c>
+      <c r="N160" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>14</v>
+      </c>
+      <c r="H161">
+        <v>893</v>
+      </c>
+      <c r="J161" t="s">
+        <v>37</v>
+      </c>
+      <c r="K161" t="s">
+        <v>38</v>
+      </c>
+      <c r="L161">
+        <v>100</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>320</v>
+      </c>
+      <c r="H162">
+        <v>399</v>
+      </c>
+      <c r="J162" t="s">
+        <v>37</v>
+      </c>
+      <c r="K162" t="s">
+        <v>38</v>
+      </c>
+      <c r="L162">
+        <v>400</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>75</v>
+      </c>
+      <c r="H163">
+        <v>908</v>
+      </c>
+      <c r="J163" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163" t="s">
+        <v>38</v>
+      </c>
+      <c r="L163">
+        <v>300</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>8</v>
+      </c>
+      <c r="H164">
+        <v>733</v>
+      </c>
+      <c r="I164" t="s">
+        <v>78</v>
+      </c>
+      <c r="J164" t="s">
+        <v>55</v>
+      </c>
+      <c r="L164">
+        <v>5</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>9</v>
+      </c>
+      <c r="H165">
+        <v>528</v>
+      </c>
+      <c r="J165" t="s">
+        <v>37</v>
+      </c>
+      <c r="K165" t="s">
+        <v>38</v>
+      </c>
+      <c r="L165">
+        <v>200</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>16</v>
+      </c>
+      <c r="H166">
+        <v>855</v>
+      </c>
+      <c r="J166" t="s">
+        <v>37</v>
+      </c>
+      <c r="K166" t="s">
+        <v>38</v>
+      </c>
+      <c r="L166">
+        <v>500</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>986</v>
+      </c>
+      <c r="J167" t="s">
+        <v>37</v>
+      </c>
+      <c r="K167" t="s">
+        <v>38</v>
+      </c>
+      <c r="L167">
+        <v>300</v>
+      </c>
+      <c r="M167">
+        <v>10</v>
+      </c>
+      <c r="N167" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>20</v>
+      </c>
+      <c r="H168">
+        <v>638</v>
+      </c>
+      <c r="J168" t="s">
+        <v>37</v>
+      </c>
+      <c r="K168" t="s">
+        <v>38</v>
+      </c>
+      <c r="L168">
+        <v>500</v>
+      </c>
+      <c r="M168">
+        <v>9</v>
+      </c>
+      <c r="N168" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>12</v>
+      </c>
+      <c r="H169">
+        <v>632</v>
+      </c>
+      <c r="J169" t="s">
+        <v>37</v>
+      </c>
+      <c r="K169" t="s">
+        <v>38</v>
+      </c>
+      <c r="L169">
+        <v>100</v>
+      </c>
+      <c r="M169">
+        <v>8</v>
+      </c>
+      <c r="N169" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>62</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>12</v>
+      </c>
+      <c r="H170">
+        <v>623</v>
+      </c>
+      <c r="J170" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170" t="s">
+        <v>39</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>7</v>
+      </c>
+      <c r="N170" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>100</v>
+      </c>
+      <c r="H171">
+        <v>610</v>
+      </c>
+      <c r="J171" t="s">
+        <v>37</v>
+      </c>
+      <c r="K171" t="s">
+        <v>38</v>
+      </c>
+      <c r="L171">
+        <v>200</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>17</v>
+      </c>
+      <c r="H172">
+        <v>751</v>
+      </c>
+      <c r="J172" t="s">
+        <v>37</v>
+      </c>
+      <c r="K172" t="s">
+        <v>38</v>
+      </c>
+      <c r="L172">
+        <v>500</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+      <c r="N172" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>350</v>
+      </c>
+      <c r="H173">
+        <v>697</v>
+      </c>
+      <c r="J173" t="s">
+        <v>37</v>
+      </c>
+      <c r="K173" t="s">
+        <v>38</v>
+      </c>
+      <c r="L173">
+        <v>400</v>
+      </c>
+      <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>15</v>
+      </c>
+      <c r="H174">
+        <v>901</v>
+      </c>
+      <c r="I174" t="s">
+        <v>81</v>
+      </c>
+      <c r="J174" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>15</v>
+      </c>
+      <c r="H175">
+        <v>893</v>
+      </c>
+      <c r="J175" t="s">
+        <v>37</v>
+      </c>
+      <c r="K175" t="s">
+        <v>38</v>
+      </c>
+      <c r="L175">
+        <v>200</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="H176">
+        <v>340</v>
+      </c>
+      <c r="J176" t="s">
+        <v>37</v>
+      </c>
+      <c r="K176" t="s">
+        <v>38</v>
+      </c>
+      <c r="L176">
+        <v>100</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>9</v>
+      </c>
+      <c r="H177">
+        <v>732</v>
+      </c>
+      <c r="I177" t="s">
+        <v>84</v>
+      </c>
+      <c r="J177" t="s">
+        <v>37</v>
+      </c>
+      <c r="K177" t="s">
+        <v>38</v>
+      </c>
+      <c r="L177">
+        <v>12500</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>25</v>
+      </c>
+      <c r="H178">
+        <v>397</v>
+      </c>
+      <c r="J178" t="s">
+        <v>37</v>
+      </c>
+      <c r="K178" t="s">
+        <v>38</v>
+      </c>
+      <c r="L178">
+        <v>300</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="H179">
+        <v>816</v>
+      </c>
+      <c r="J179" t="s">
+        <v>37</v>
+      </c>
+      <c r="K179" t="s">
+        <v>38</v>
+      </c>
+      <c r="L179">
+        <v>400</v>
+      </c>
+      <c r="M179">
+        <v>10</v>
+      </c>
+      <c r="N179" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>120</v>
+      </c>
+      <c r="H180">
+        <v>789</v>
+      </c>
+      <c r="J180" t="s">
+        <v>37</v>
+      </c>
+      <c r="K180" t="s">
+        <v>38</v>
+      </c>
+      <c r="L180">
+        <v>200</v>
+      </c>
+      <c r="M180">
+        <v>9</v>
+      </c>
+      <c r="N180" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>62</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>13</v>
+      </c>
+      <c r="H181">
+        <v>776</v>
+      </c>
+      <c r="J181" t="s">
+        <v>37</v>
+      </c>
+      <c r="K181" t="s">
+        <v>38</v>
+      </c>
+      <c r="L181">
+        <v>600</v>
+      </c>
+      <c r="M181">
+        <v>8</v>
+      </c>
+      <c r="N181" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+      <c r="H182">
+        <v>713</v>
+      </c>
+      <c r="J182" t="s">
+        <v>37</v>
+      </c>
+      <c r="K182" t="s">
+        <v>38</v>
+      </c>
+      <c r="L182">
+        <v>100</v>
+      </c>
+      <c r="M182">
+        <v>7</v>
+      </c>
+      <c r="N182" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="H183">
+        <v>427</v>
+      </c>
+      <c r="J183" t="s">
+        <v>37</v>
+      </c>
+      <c r="K183" t="s">
+        <v>38</v>
+      </c>
+      <c r="L183">
+        <v>500</v>
+      </c>
+      <c r="M183">
+        <v>6</v>
+      </c>
+      <c r="N183" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="H184">
+        <v>161</v>
+      </c>
+      <c r="J184" t="s">
+        <v>37</v>
+      </c>
+      <c r="K184" t="s">
+        <v>38</v>
+      </c>
+      <c r="L184">
+        <v>200</v>
+      </c>
+      <c r="M184">
+        <v>5</v>
+      </c>
+      <c r="N184" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>250</v>
+      </c>
+      <c r="H185">
+        <v>368</v>
+      </c>
+      <c r="J185" t="s">
+        <v>37</v>
+      </c>
+      <c r="K185" t="s">
+        <v>39</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>4</v>
+      </c>
+      <c r="N185" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>21</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>952</v>
+      </c>
+      <c r="J186" t="s">
+        <v>37</v>
+      </c>
+      <c r="K186" t="s">
+        <v>38</v>
+      </c>
+      <c r="L186">
+        <v>300</v>
+      </c>
+      <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="H187">
+        <v>906</v>
+      </c>
+      <c r="J187" t="s">
+        <v>37</v>
+      </c>
+      <c r="K187" t="s">
+        <v>38</v>
+      </c>
+      <c r="L187">
+        <v>500</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>27</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>18</v>
+      </c>
+      <c r="H188">
+        <v>637</v>
+      </c>
+      <c r="J188" t="s">
+        <v>37</v>
+      </c>
+      <c r="K188" t="s">
+        <v>38</v>
+      </c>
+      <c r="L188">
+        <v>100</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>999</v>
+      </c>
+      <c r="H189">
+        <v>956</v>
+      </c>
+      <c r="I189" t="s">
+        <v>86</v>
+      </c>
+      <c r="J189" t="s">
+        <v>41</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>5</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>13</v>
+      </c>
+      <c r="H190">
+        <v>252</v>
+      </c>
+      <c r="J190" t="s">
+        <v>37</v>
+      </c>
+      <c r="K190" t="s">
+        <v>38</v>
+      </c>
+      <c r="L190">
+        <v>300</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>62</v>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>10</v>
+      </c>
+      <c r="H191">
+        <v>572</v>
+      </c>
+      <c r="J191" t="s">
+        <v>37</v>
+      </c>
+      <c r="K191" t="s">
+        <v>38</v>
+      </c>
+      <c r="L191">
+        <v>200</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="H192">
+        <v>460</v>
+      </c>
+      <c r="J192" t="s">
+        <v>37</v>
+      </c>
+      <c r="K192" t="s">
+        <v>38</v>
+      </c>
+      <c r="L192">
+        <v>300</v>
+      </c>
+      <c r="M192">
+        <v>10</v>
+      </c>
+      <c r="N192" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>150</v>
+      </c>
+      <c r="H193">
+        <v>961</v>
+      </c>
+      <c r="J193" t="s">
+        <v>37</v>
+      </c>
+      <c r="K193" t="s">
+        <v>39</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>9</v>
+      </c>
+      <c r="N193" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>8</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>27</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>15</v>
+      </c>
+      <c r="H194">
+        <v>338</v>
+      </c>
+      <c r="J194" t="s">
+        <v>37</v>
+      </c>
+      <c r="K194" t="s">
+        <v>38</v>
+      </c>
+      <c r="L194">
+        <v>400</v>
+      </c>
+      <c r="M194">
+        <v>8</v>
+      </c>
+      <c r="N194" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>30</v>
+      </c>
+      <c r="H195">
+        <v>771</v>
+      </c>
+      <c r="J195" t="s">
+        <v>37</v>
+      </c>
+      <c r="K195" t="s">
+        <v>38</v>
+      </c>
+      <c r="L195">
+        <v>300</v>
+      </c>
+      <c r="M195">
+        <v>7</v>
+      </c>
+      <c r="N195" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>15</v>
+      </c>
+      <c r="H196">
+        <v>919</v>
+      </c>
+      <c r="J196" t="s">
+        <v>37</v>
+      </c>
+      <c r="K196" t="s">
+        <v>38</v>
+      </c>
+      <c r="L196">
+        <v>200</v>
+      </c>
+      <c r="M196">
+        <v>6</v>
+      </c>
+      <c r="N196" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>7</v>
+      </c>
+      <c r="H197">
+        <v>454</v>
+      </c>
+      <c r="I197" t="s">
+        <v>81</v>
+      </c>
+      <c r="J197" t="s">
+        <v>55</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+      <c r="N197" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>35</v>
+      </c>
+      <c r="H198">
+        <v>308</v>
+      </c>
+      <c r="J198" t="s">
+        <v>37</v>
+      </c>
+      <c r="K198" t="s">
+        <v>38</v>
+      </c>
+      <c r="L198">
+        <v>700</v>
+      </c>
+      <c r="M198">
+        <v>4</v>
+      </c>
+      <c r="N198" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="H199">
+        <v>968</v>
+      </c>
+      <c r="J199" t="s">
+        <v>37</v>
+      </c>
+      <c r="K199" t="s">
+        <v>38</v>
+      </c>
+      <c r="L199">
+        <v>200</v>
+      </c>
+      <c r="M199">
+        <v>3</v>
+      </c>
+      <c r="N199" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>375</v>
+      </c>
+      <c r="H200">
+        <v>257</v>
+      </c>
+      <c r="J200" t="s">
+        <v>37</v>
+      </c>
+      <c r="K200" t="s">
+        <v>38</v>
+      </c>
+      <c r="L200">
+        <v>500</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>20</v>
+      </c>
+      <c r="H201">
+        <v>166</v>
+      </c>
+      <c r="J201" t="s">
+        <v>37</v>
+      </c>
+      <c r="K201" t="s">
+        <v>38</v>
+      </c>
+      <c r="L201">
+        <v>300</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+      <c r="H202">
+        <v>589</v>
+      </c>
+      <c r="I202" t="s">
+        <v>60</v>
+      </c>
+      <c r="J202" t="s">
+        <v>42</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05CEE53-BBA9-40C2-9FF8-6E95F3BCE7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E1A145-12C9-40A2-9A73-245F1A798300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>GuideQuestDesc_17</t>
   </si>
   <si>
-    <t>GuideQuestDesc_25</t>
-  </si>
-  <si>
     <t>ShopUIName_CharacterBox</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
     <t>GuideQuestDesc_9</t>
   </si>
   <si>
+    <t>GuideQuestDesc_19</t>
+  </si>
+  <si>
     <t>GuideQuestDesc_14</t>
   </si>
   <si>
@@ -238,18 +238,9 @@
     <t>GuideQuestDesc_21</t>
   </si>
   <si>
-    <t>GuideQuestDesc_18</t>
-  </si>
-  <si>
-    <t>GuideQuestDesc_24</t>
-  </si>
-  <si>
     <t>GuideQuestDesc_15</t>
   </si>
   <si>
-    <t>GuideQuestDesc_19_staff</t>
-  </si>
-  <si>
     <t>GuideQuestDesc_20</t>
   </si>
   <si>
@@ -265,15 +256,9 @@
     <t>Actor1216</t>
   </si>
   <si>
-    <t>GuideQuestDesc_19_axe</t>
-  </si>
-  <si>
     <t>GuideQuestReward_Equipment5</t>
   </si>
   <si>
-    <t>GuideQuestDesc_19_bow</t>
-  </si>
-  <si>
     <t>key|Int</t>
   </si>
   <si>
@@ -302,6 +287,21 @@
   </si>
   <si>
     <t>GuideQuestReward_Gold15000</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_10</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_18_staff</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_22</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_18_axe</t>
+  </si>
+  <si>
+    <t>GuideQuestDesc_18_bow</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
         <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
         <v>31</v>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>903</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>635</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>607</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
@@ -1652,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21">
         <v>358</v>
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>209</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H28">
         <v>517</v>
@@ -1942,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1980,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H33">
         <v>609</v>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
         <v>914</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s">
         <v>55</v>
@@ -2222,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="N38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="N39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2374,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="N40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>484</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s">
         <v>55</v>
@@ -2436,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="N41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
         <v>902</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
         <v>37</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -2705,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -2743,7 +2743,7 @@
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -2757,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H50">
         <v>177</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2836,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
         <v>374</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
@@ -2985,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>9</v>
       </c>
       <c r="N58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3120,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="N59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3199,7 +3199,7 @@
         <v>6</v>
       </c>
       <c r="N61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3213,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>509</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s">
         <v>55</v>
@@ -3275,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3351,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -3415,7 +3415,7 @@
         <v>796</v>
       </c>
       <c r="I67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s">
         <v>55</v>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="N70" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -3576,7 +3576,7 @@
         <v>9</v>
       </c>
       <c r="N71" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -3614,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="N72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -3652,7 +3652,7 @@
         <v>7</v>
       </c>
       <c r="N73" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -3690,7 +3690,7 @@
         <v>6</v>
       </c>
       <c r="N74" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3716,7 +3716,7 @@
         <v>101</v>
       </c>
       <c r="I75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -3804,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -3909,7 +3909,7 @@
         <v>685</v>
       </c>
       <c r="I80" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s">
         <v>37</v>
@@ -4005,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -4014,13 +4014,13 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H83">
         <v>736</v>
       </c>
       <c r="I83" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J83" t="s">
         <v>55</v>
@@ -4032,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="N83" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="N84" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -4108,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="N85" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -4146,7 +4146,7 @@
         <v>7</v>
       </c>
       <c r="N86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -4184,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="N87" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -4263,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4301,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -4403,7 +4403,7 @@
         <v>284</v>
       </c>
       <c r="I93" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
@@ -4499,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H96">
         <v>206</v>
@@ -4526,7 +4526,7 @@
         <v>10</v>
       </c>
       <c r="N96" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -4564,7 +4564,7 @@
         <v>9</v>
       </c>
       <c r="N97" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -4605,7 +4605,7 @@
         <v>8</v>
       </c>
       <c r="N98" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -4643,7 +4643,7 @@
         <v>7</v>
       </c>
       <c r="N99" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -4681,7 +4681,7 @@
         <v>6</v>
       </c>
       <c r="N100" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -4707,7 +4707,7 @@
         <v>350</v>
       </c>
       <c r="I101" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J101" t="s">
         <v>55</v>
@@ -4719,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -4757,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -4833,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="N104" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -4897,7 +4897,7 @@
         <v>841</v>
       </c>
       <c r="I106" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J106" t="s">
         <v>37</v>
@@ -4923,7 +4923,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="N107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -5023,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -5049,7 +5049,7 @@
         <v>208</v>
       </c>
       <c r="I110" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J110" t="s">
         <v>55</v>
@@ -5061,7 +5061,7 @@
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -5140,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>376</v>
       </c>
       <c r="I113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J113" t="s">
         <v>42</v>
@@ -5283,7 +5283,7 @@
         <v>10</v>
       </c>
       <c r="N116" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -5321,7 +5321,7 @@
         <v>9</v>
       </c>
       <c r="N117" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>8</v>
       </c>
       <c r="N118" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -5400,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -5438,7 +5438,7 @@
         <v>6</v>
       </c>
       <c r="N120" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -5476,7 +5476,7 @@
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -5514,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -5540,7 +5540,7 @@
         <v>172</v>
       </c>
       <c r="I123" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J123" t="s">
         <v>55</v>
@@ -5552,7 +5552,7 @@
         <v>3</v>
       </c>
       <c r="N123" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="N124" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -5654,7 +5654,7 @@
         <v>168</v>
       </c>
       <c r="I126" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s">
         <v>37</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="N128" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -5756,7 +5756,7 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>9</v>
       </c>
       <c r="N129" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -5818,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="N130" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
@@ -5856,7 +5856,7 @@
         <v>7</v>
       </c>
       <c r="N131" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E132" t="b">
         <v>1</v>
@@ -5897,7 +5897,7 @@
         <v>6</v>
       </c>
       <c r="N132" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -5935,7 +5935,7 @@
         <v>5</v>
       </c>
       <c r="N133" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -5961,7 +5961,7 @@
         <v>285</v>
       </c>
       <c r="I134" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J134" t="s">
         <v>55</v>
@@ -5973,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="N134" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -6011,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="N135" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="N136" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
@@ -6113,7 +6113,7 @@
         <v>967</v>
       </c>
       <c r="I138" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J138" t="s">
         <v>41</v>
@@ -6233,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="N141" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -6271,7 +6271,7 @@
         <v>9</v>
       </c>
       <c r="N142" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>8</v>
       </c>
       <c r="N143" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -6347,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="N144" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="N145" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>5</v>
       </c>
       <c r="N146" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -6452,7 +6452,7 @@
         <v>610</v>
       </c>
       <c r="I147" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J147" t="s">
         <v>55</v>
@@ -6464,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="N147" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -6502,7 +6502,7 @@
         <v>3</v>
       </c>
       <c r="N148" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -6540,7 +6540,7 @@
         <v>2</v>
       </c>
       <c r="N149" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -6604,7 +6604,7 @@
         <v>505</v>
       </c>
       <c r="I151" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J151" t="s">
         <v>37</v>
@@ -6630,7 +6630,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
@@ -6727,7 +6727,7 @@
         <v>10</v>
       </c>
       <c r="N154" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -6753,7 +6753,7 @@
         <v>737</v>
       </c>
       <c r="I155" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J155" t="s">
         <v>55</v>
@@ -6765,7 +6765,7 @@
         <v>9</v>
       </c>
       <c r="N155" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -6803,7 +6803,7 @@
         <v>8</v>
       </c>
       <c r="N156" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -6841,7 +6841,7 @@
         <v>7</v>
       </c>
       <c r="N157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -6879,7 +6879,7 @@
         <v>6</v>
       </c>
       <c r="N158" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -6917,7 +6917,7 @@
         <v>5</v>
       </c>
       <c r="N159" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -6955,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="N160" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="N161" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="N162" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -7095,7 +7095,7 @@
         <v>733</v>
       </c>
       <c r="I164" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J164" t="s">
         <v>55</v>
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
@@ -7215,7 +7215,7 @@
         <v>10</v>
       </c>
       <c r="N167" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -7253,7 +7253,7 @@
         <v>9</v>
       </c>
       <c r="N168" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -7291,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="N169" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E170" t="b">
         <v>1</v>
@@ -7332,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="N170" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -7370,7 +7370,7 @@
         <v>6</v>
       </c>
       <c r="N171" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -7408,7 +7408,7 @@
         <v>5</v>
       </c>
       <c r="N172" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -7446,7 +7446,7 @@
         <v>4</v>
       </c>
       <c r="N173" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -7472,7 +7472,7 @@
         <v>901</v>
       </c>
       <c r="I174" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J174" t="s">
         <v>55</v>
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="N174" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -7522,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="N175" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="N176" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -7586,7 +7586,7 @@
         <v>732</v>
       </c>
       <c r="I177" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J177" t="s">
         <v>37</v>
@@ -7671,7 +7671,7 @@
         <v>10</v>
       </c>
       <c r="N179" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -7709,7 +7709,7 @@
         <v>9</v>
       </c>
       <c r="N180" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>8</v>
       </c>
       <c r="N181" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -7788,7 +7788,7 @@
         <v>7</v>
       </c>
       <c r="N182" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -7826,7 +7826,7 @@
         <v>6</v>
       </c>
       <c r="N183" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -7864,7 +7864,7 @@
         <v>5</v>
       </c>
       <c r="N184" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -7902,7 +7902,7 @@
         <v>4</v>
       </c>
       <c r="N185" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -7916,7 +7916,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>3</v>
       </c>
       <c r="N186" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -7978,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="N187" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="N188" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -8042,7 +8042,7 @@
         <v>956</v>
       </c>
       <c r="I189" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J189" t="s">
         <v>41</v>
@@ -8103,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -8165,7 +8165,7 @@
         <v>10</v>
       </c>
       <c r="N192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -8203,7 +8203,7 @@
         <v>9</v>
       </c>
       <c r="N193" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -8241,7 +8241,7 @@
         <v>8</v>
       </c>
       <c r="N194" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -8279,7 +8279,7 @@
         <v>7</v>
       </c>
       <c r="N195" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -8320,7 +8320,7 @@
         <v>6</v>
       </c>
       <c r="N196" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -8346,7 +8346,7 @@
         <v>454</v>
       </c>
       <c r="I197" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J197" t="s">
         <v>55</v>
@@ -8358,7 +8358,7 @@
         <v>5</v>
       </c>
       <c r="N197" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -8396,7 +8396,7 @@
         <v>4</v>
       </c>
       <c r="N198" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="N199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -8472,7 +8472,7 @@
         <v>2</v>
       </c>
       <c r="N200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="N201" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -8536,7 +8536,7 @@
         <v>589</v>
       </c>
       <c r="I202" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J202" t="s">
         <v>42</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E1A145-12C9-40A2-9A73-245F1A798300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0558C1B-94C1-493C-BD14-91A92ABCCFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="90">
   <si>
     <t>type|String</t>
   </si>
@@ -1065,7 +1065,10 @@
         <v>300</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1100,7 +1103,10 @@
         <v>100</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1138,7 +1144,10 @@
         <v>500</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1173,7 +1182,10 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1208,7 +1220,10 @@
         <v>100</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0558C1B-94C1-493C-BD14-91A92ABCCFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D70F2-8AE6-492C-BC3E-98720C38AF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="90">
   <si>
     <t>type|String</t>
   </si>
@@ -869,7 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2666,9 +2668,6 @@
       <c r="H47">
         <v>902</v>
       </c>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
       <c r="J47" t="s">
         <v>37</v>
       </c>
@@ -3923,9 +3922,6 @@
       <c r="H80">
         <v>685</v>
       </c>
-      <c r="I80" t="s">
-        <v>79</v>
-      </c>
       <c r="J80" t="s">
         <v>37</v>
       </c>
@@ -4911,9 +4907,6 @@
       <c r="H106">
         <v>841</v>
       </c>
-      <c r="I106" t="s">
-        <v>83</v>
-      </c>
       <c r="J106" t="s">
         <v>37</v>
       </c>
@@ -5668,9 +5661,6 @@
       <c r="H126">
         <v>168</v>
       </c>
-      <c r="I126" t="s">
-        <v>84</v>
-      </c>
       <c r="J126" t="s">
         <v>37</v>
       </c>
@@ -6618,9 +6608,6 @@
       <c r="H151">
         <v>505</v>
       </c>
-      <c r="I151" t="s">
-        <v>83</v>
-      </c>
       <c r="J151" t="s">
         <v>37</v>
       </c>
@@ -7599,9 +7586,6 @@
       </c>
       <c r="H177">
         <v>732</v>
-      </c>
-      <c r="I177" t="s">
-        <v>79</v>
       </c>
       <c r="J177" t="s">
         <v>37</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D70F2-8AE6-492C-BC3E-98720C38AF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB83190-4236-4EFA-ABCC-469159AA68F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="88">
   <si>
     <t>type|String</t>
   </si>
@@ -274,13 +274,7 @@
     <t>GuideQuestReward_Gold12500</t>
   </si>
   <si>
-    <t>Actor0007</t>
-  </si>
-  <si>
     <t>GuideQuestReward_EpicEquipment5</t>
-  </si>
-  <si>
-    <t>Actor2010</t>
   </si>
   <si>
     <t>GuideQuestReward_Gem10</t>
@@ -869,9 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -973,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1593,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1818,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2239,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2850,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -3072,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -4010,23 +4002,20 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>4</v>
       </c>
-      <c r="G83" t="s">
-        <v>80</v>
-      </c>
       <c r="H83">
         <v>736</v>
       </c>
@@ -4043,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="N83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -4081,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="N84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -4119,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="N85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -4157,7 +4146,7 @@
         <v>7</v>
       </c>
       <c r="N86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -4195,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="N87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -4236,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -4274,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4312,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -4350,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -4388,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -4414,7 +4403,7 @@
         <v>284</v>
       </c>
       <c r="I93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
@@ -4504,23 +4493,20 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>4</v>
       </c>
-      <c r="G96" t="s">
-        <v>82</v>
-      </c>
       <c r="H96">
         <v>206</v>
       </c>
@@ -4537,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="N96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -4575,7 +4561,7 @@
         <v>9</v>
       </c>
       <c r="N97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -4616,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="N98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -4654,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="N99" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -4692,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="N100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -4730,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -4768,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -4806,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -4844,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="N104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -4882,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -4931,7 +4917,7 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -5291,7 +5277,7 @@
         <v>10</v>
       </c>
       <c r="N116" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -5329,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="N117" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -5370,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="N118" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -5408,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="N119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -5446,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="N120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -5484,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -5522,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -5560,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="N123" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -5598,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="N124" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -5636,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -6238,7 +6224,7 @@
         <v>10</v>
       </c>
       <c r="N141" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -6276,7 +6262,7 @@
         <v>9</v>
       </c>
       <c r="N142" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -6314,7 +6300,7 @@
         <v>8</v>
       </c>
       <c r="N143" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -6352,7 +6338,7 @@
         <v>7</v>
       </c>
       <c r="N144" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -6390,7 +6376,7 @@
         <v>6</v>
       </c>
       <c r="N145" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -6431,7 +6417,7 @@
         <v>5</v>
       </c>
       <c r="N146" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -6469,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="N147" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -6507,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="N148" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -6545,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="N149" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -6583,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -6632,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
@@ -7670,7 +7656,7 @@
         <v>10</v>
       </c>
       <c r="N179" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -7708,7 +7694,7 @@
         <v>9</v>
       </c>
       <c r="N180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -7749,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="N181" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -7787,7 +7773,7 @@
         <v>7</v>
       </c>
       <c r="N182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -7825,7 +7811,7 @@
         <v>6</v>
       </c>
       <c r="N183" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -7863,7 +7849,7 @@
         <v>5</v>
       </c>
       <c r="N184" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -7901,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="N185" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -7939,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="N186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -7977,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="N187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -8015,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="N188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -8041,7 +8027,7 @@
         <v>956</v>
       </c>
       <c r="I189" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J189" t="s">
         <v>41</v>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB83190-4236-4EFA-ABCC-469159AA68F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADCF74-DD85-494B-AAA6-1513C6494800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="88">
   <si>
     <t>type|String</t>
   </si>
@@ -861,9 +861,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
-  <dimension ref="A1:N202"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8533,6 +8535,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>28</v>
+      </c>
+      <c r="H203">
+        <v>629</v>
+      </c>
+      <c r="J203" t="s">
+        <v>37</v>
+      </c>
+      <c r="K203" t="s">
+        <v>38</v>
+      </c>
+      <c r="L203">
+        <v>300</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Quest.xlsx
+++ b/Excel/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7D2B7-C334-44F3-B901-3F58987E653D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFF147B-22B2-4998-BF1C-FC7018F93BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D81F9E31-8774-41AE-8DB9-A825D81F47C2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="89">
   <si>
     <t>type|String</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>GuideQuestDesc_18_bow</t>
-  </si>
-  <si>
-    <t>GuideQuestReward_Gold1000</t>
   </si>
   <si>
     <t>GuideQuestReward_Gem15</t>
@@ -869,9 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211884E-E6DD-41A3-AFCA-197A318D2388}">
   <dimension ref="A1:N802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="A503" sqref="A503"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10160,7 +10155,7 @@
         <v>10</v>
       </c>
       <c r="N245" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -10201,7 +10196,7 @@
         <v>9</v>
       </c>
       <c r="N246" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -10239,7 +10234,7 @@
         <v>8</v>
       </c>
       <c r="N247" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -10277,7 +10272,7 @@
         <v>7</v>
       </c>
       <c r="N248" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -10315,7 +10310,7 @@
         <v>6</v>
       </c>
       <c r="N249" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -10353,7 +10348,7 @@
         <v>5</v>
       </c>
       <c r="N250" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -10391,7 +10386,7 @@
         <v>4</v>
       </c>
       <c r="N251" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -10429,7 +10424,7 @@
         <v>3</v>
       </c>
       <c r="N252" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -10467,7 +10462,7 @@
         <v>2</v>
       </c>
       <c r="N253" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -10505,7 +10500,7 @@
         <v>1</v>
       </c>
       <c r="N254" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -12612,7 +12607,7 @@
         <v>10</v>
       </c>
       <c r="N310" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
@@ -12650,7 +12645,7 @@
         <v>9</v>
       </c>
       <c r="N311" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
@@ -12688,7 +12683,7 @@
         <v>8</v>
       </c>
       <c r="N312" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
@@ -12726,7 +12721,7 @@
         <v>7</v>
       </c>
       <c r="N313" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
@@ -12764,7 +12759,7 @@
         <v>6</v>
       </c>
       <c r="N314" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.3">
@@ -12805,7 +12800,7 @@
         <v>5</v>
       </c>
       <c r="N315" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.3">
@@ -12843,7 +12838,7 @@
         <v>4</v>
       </c>
       <c r="N316" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.3">
@@ -12881,7 +12876,7 @@
         <v>3</v>
       </c>
       <c r="N317" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.3">
@@ -12919,7 +12914,7 @@
         <v>2</v>
       </c>
       <c r="N318" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.3">
@@ -12957,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="N319" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.3">
@@ -21455,7 +21450,7 @@
         <v>10</v>
       </c>
       <c r="N545" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.3">
@@ -21496,7 +21491,7 @@
         <v>9</v>
       </c>
       <c r="N546" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.3">
@@ -21534,7 +21529,7 @@
         <v>8</v>
       </c>
       <c r="N547" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.3">
@@ -21572,7 +21567,7 @@
         <v>7</v>
       </c>
       <c r="N548" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.3">
@@ -21610,7 +21605,7 @@
         <v>6</v>
       </c>
       <c r="N549" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.3">
@@ -21648,7 +21643,7 @@
         <v>5</v>
       </c>
       <c r="N550" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.3">
@@ -21686,7 +21681,7 @@
         <v>4</v>
       </c>
       <c r="N551" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.3">
@@ -21724,7 +21719,7 @@
         <v>3</v>
       </c>
       <c r="N552" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.3">
@@ -21762,7 +21757,7 @@
         <v>2</v>
       </c>
       <c r="N553" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.3">
@@ -21800,7 +21795,7 @@
         <v>1</v>
       </c>
       <c r="N554" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.3">
@@ -23907,7 +23902,7 @@
         <v>10</v>
       </c>
       <c r="N610" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.3">
@@ -23945,7 +23940,7 @@
         <v>9</v>
       </c>
       <c r="N611" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.3">
@@ -23983,7 +23978,7 @@
         <v>8</v>
       </c>
       <c r="N612" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.3">
@@ -24021,7 +24016,7 @@
         <v>7</v>
       </c>
       <c r="N613" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.3">
@@ -24059,7 +24054,7 @@
         <v>6</v>
       </c>
       <c r="N614" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.3">
@@ -24100,7 +24095,7 @@
         <v>5</v>
       </c>
       <c r="N615" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.3">
@@ -24138,7 +24133,7 @@
         <v>4</v>
       </c>
       <c r="N616" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.3">
@@ -24176,7 +24171,7 @@
         <v>3</v>
       </c>
       <c r="N617" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.3">
@@ -24214,7 +24209,7 @@
         <v>2</v>
       </c>
       <c r="N618" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.3">
@@ -24252,7 +24247,7 @@
         <v>1</v>
       </c>
       <c r="N619" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.3">
